--- a/me-docs/19.Hien-thi-Category-ngoai-Frontend.xlsx
+++ b/me-docs/19.Hien-thi-Category-ngoai-Frontend.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE35CE07-6436-409F-8958-93C5829B396F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177FA067-A97A-43AD-9586-249F6AE36EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="2" r:id="rId1"/>
+    <sheet name="frontend" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>Create category table</t>
   </si>
@@ -127,6 +128,18 @@
   </si>
   <si>
     <t>Check brower</t>
+  </si>
+  <si>
+    <t>app\Models\CategoryModel.php</t>
+  </si>
+  <si>
+    <t>app\Helpers\Menu.php</t>
+  </si>
+  <si>
+    <t>resources\views\news\elements\header.blade.php</t>
+  </si>
+  <si>
+    <t>Check browser</t>
   </si>
 </sst>
 </file>
@@ -1319,6 +1332,231 @@
         <a:xfrm>
           <a:off x="609601" y="88963500"/>
           <a:ext cx="11449050" cy="5942562"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>399009</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBD7984-B3EB-4F66-B970-2EA7EA3E891E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="8323809" cy="2561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>589333</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>75833</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F877E152-AEE7-4C50-B93D-EEF1F7C32180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="9733333" cy="2933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>322514</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>9000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82C12E8-BCFF-4566-821C-D9857E037440}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6667500"/>
+          <a:ext cx="10685714" cy="4200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560609</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>94738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026684A3-3548-48BA-93F5-47B43B9BDBC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11049000"/>
+          <a:ext cx="10923809" cy="4095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>88886</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E517988-B130-48CA-B70F-D11876843592}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="15621000"/>
+          <a:ext cx="10915650" cy="4660886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D5D60B-0613-4FB8-A742-17FDBEC3550E}">
   <dimension ref="A2:T467"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
+    <sheetView topLeftCell="A463" workbookViewId="0">
       <selection activeCell="A469" sqref="A469"/>
     </sheetView>
   </sheetViews>
@@ -1860,4 +2098,40 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EC0B7D-D584-4C34-98D5-E81589CE9183}">
+  <dimension ref="A2:A82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>